--- a/medicine/Enfance/Ruth_Lambert/Ruth_Lambert.xlsx
+++ b/medicine/Enfance/Ruth_Lambert/Ruth_Lambert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruth Lambert (24 janvier 1914, Thionville, Alsace-Lorraine - 17 novembre 1996, Lyon 5e) est une assistante sociale juive française, travaillant pour l'Œuvre de secours aux enfants (OSE), avec l'aide d'Elisabeth Hirsch et de
-Ninon Haït-Weyl ; elle arrive à faire sortir des camps de détention en France des centaines d'enfants et d'adolescents[1].
+Ninon Haït-Weyl ; elle arrive à faire sortir des camps de détention en France des centaines d'enfants et d'adolescents.
 </t>
         </is>
       </c>
@@ -514,12 +526,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ruth Lambert au camp de Gurs
-Ruth Lambert est recrutée par Andrée Salomon de l'OSE en 1940. Elle est assistante sociale au camp de Gurs, de février 1941 à juin 1943, à l'exception du second semestre de 1942, période où elle est expulsée de Gurs par le chef du camp, en raison de son comportement jugé trop favorable aux internés[2],[3],[4],[5].
-Ruth Lambert au camp de Rivesaltes
-En décembre 1943, l'abbé Pierre Mopty (1913-24 avril 1986, de Montpellier (Hérault) se rend à Lyon pour accompagner une famille juive (les parents Waldman et leur fille de 10 ans) qui se prépare à passer la frontière suisse. Mais avant qu'il puisse les contacter, ils sont arrêtés et internés au camp de Rivesaltes. Pierre Morty va à Rivesaltes. Il rencontre Ruth Lambert, qui travaillant pour l'OSE vient d'arriver à Rivesaltes, pour sauver des enfants juifs. Ruth Lambert est aidée par le père Albert Gross (1904-1975), représentant de l'organisation Caritas Suisse[6], et par Andrée Salomon, chargée de coordonner les activités de sauvetage de l'OSE. Pierre Mopty réussit à sauver la famille et à la faire passer en Suisse[7].
-Mort
-Ruth Lambert se retire au couvent des Sœurs du Prado à Lyon[8], où elle meurt le 17 novembre 1996[9], à l'âge de 82 ans[10].
+          <t>Ruth Lambert au camp de Gurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruth Lambert est recrutée par Andrée Salomon de l'OSE en 1940. Elle est assistante sociale au camp de Gurs, de février 1941 à juin 1943, à l'exception du second semestre de 1942, période où elle est expulsée de Gurs par le chef du camp, en raison de son comportement jugé trop favorable aux internés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ruth_Lambert</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruth_Lambert</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ruth Lambert au camp de Rivesaltes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 1943, l'abbé Pierre Mopty (1913-24 avril 1986, de Montpellier (Hérault) se rend à Lyon pour accompagner une famille juive (les parents Waldman et leur fille de 10 ans) qui se prépare à passer la frontière suisse. Mais avant qu'il puisse les contacter, ils sont arrêtés et internés au camp de Rivesaltes. Pierre Morty va à Rivesaltes. Il rencontre Ruth Lambert, qui travaillant pour l'OSE vient d'arriver à Rivesaltes, pour sauver des enfants juifs. Ruth Lambert est aidée par le père Albert Gross (1904-1975), représentant de l'organisation Caritas Suisse, et par Andrée Salomon, chargée de coordonner les activités de sauvetage de l'OSE. Pierre Mopty réussit à sauver la famille et à la faire passer en Suisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ruth_Lambert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruth_Lambert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruth Lambert se retire au couvent des Sœurs du Prado à Lyon, où elle meurt le 17 novembre 1996, à l'âge de 82 ans.
 </t>
         </is>
       </c>
